--- a/public/laporan_Pembuatan Website.xlsx
+++ b/public/laporan_Pembuatan Website.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>QUOATION</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Nomor PIC</t>
   </si>
   <si>
-    <t>: Wahyu</t>
+    <t>: Wahyuhidayat</t>
   </si>
   <si>
     <t>: Pembuatan Website</t>
@@ -50,10 +50,10 @@
     <t>: 31-01-2024</t>
   </si>
   <si>
-    <t>: Wahyu Hidayat</t>
-  </si>
-  <si>
-    <t>: 260200</t>
+    <t>: Hidayat M</t>
+  </si>
+  <si>
+    <t>: 345435</t>
   </si>
   <si>
     <t>PT LINGKARAN GANDA BERKARYA</t>
@@ -107,7 +107,7 @@
     <t>Rp. 3.000.000</t>
   </si>
   <si>
-    <t>Rp. 73.200.000</t>
+    <t>Rp. 72.000.000</t>
   </si>
   <si>
     <t>Tangga Stage</t>
@@ -140,7 +140,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Rp. 120.200.000</t>
+    <t>Rp. 119.000.000</t>
+  </si>
+  <si>
+    <t>Fee Management</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Rp. 119.500.000</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -274,6 +283,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -615,7 +627,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I9" sqref="I9"/>
@@ -625,7 +637,7 @@
   <cols>
     <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="49.417" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
@@ -727,13 +739,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
@@ -827,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="9">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>24</v>
@@ -928,19 +940,49 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -955,6 +997,8 @@
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
